--- a/Practice/test_pyinstaller/3_some_excel_data.xlsx
+++ b/Practice/test_pyinstaller/3_some_excel_data.xlsx
@@ -1,50 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00533064\PycharmProjects\FutureLearn\Practice\test_pyinstaller\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9017A-7C35-4775-87BA-074A9F5DE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10200" windowWidth="19180" xWindow="7830" yWindow="8210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,24 +50,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,51 +392,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="C1">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1" t="n">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B3" t="n">
+        <v>66</v>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
       </c>
     </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Practice/test_pyinstaller/3_some_excel_data.xlsx
+++ b/Practice/test_pyinstaller/3_some_excel_data.xlsx
@@ -407,35 +407,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B1" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C1" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4"/>

--- a/Practice/test_pyinstaller/3_some_excel_data.xlsx
+++ b/Practice/test_pyinstaller/3_some_excel_data.xlsx
@@ -407,35 +407,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4"/>
